--- a/PLCTestProject/desc----.xlsx
+++ b/PLCTestProject/desc----.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-zhuhuazhen\test1\PLCTestProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhuhuazhen\test1\PLCTestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="优先级高的工作" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t>RTUPortListener</t>
   </si>
@@ -455,152 +454,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>可以考虑合入到2，状态上报，有基本参数，2的采集应该报两种消息类型的数据上去即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端响应成功或失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端响应返回具体的数据如列表，如状态数据等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过命令码对齐下发请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回错误或成功信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回编码：成功或失败编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回KEY，VALUE；或LIST《MAP》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里要修改返回的模型支持返回列表，通知下刘工和代景文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.1 设置PLC-2480开始组网指令(62H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘5.5.3 设置PLC-2480存储节点列表指令(66H)’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘ 5.4.21 节点调光(42H)’</t>
+  </si>
+  <si>
+    <t>模拟接入流程需要具备的条件分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.10 下发节点(96H)’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.12 配置节点(98H)’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加单个节点(9EH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备端上报或响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配服务接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送到KAFKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报的数据需要封装成以下几种消息类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析下入参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组网个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要入参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID，组号1~255，设备类型~常量码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须集中器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网平台应该要有对应的UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该只是一个集中器下的分组，不支持跨集中器一组 ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统启动，后台批处理程序，可以执行这5个步骤，自动完成设备的接入，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果重新做了分组，上面的接入流程需要重新从3开始执行一遍？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于PLC接入的框架打桩，即NETTY服务通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务启动，设备自动接入并配置的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAFKA消费并下发，下发报文到设备，处理设备响应报文，上报响应结果到KAFKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于协议做编码解码 ，0到1打通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1到N开发，参考协议文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有报文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以考虑合入到2，状态上报，有基本参数，2的采集应该报两种消息类型的数据上去即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端执行失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端响应成功或失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端响应返回具体的数据如列表，如状态数据等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过命令码对齐下发请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误或成功信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回编码：成功或失败编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回KEY，VALUE；或LIST《MAP》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里要修改返回的模型支持返回列表，通知下刘工和代景文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5.1 设置PLC-2480开始组网指令(62H)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‘5.5.3 设置PLC-2480存储节点列表指令(66H)’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘ 5.4.21 节点调光(42H)’</t>
-  </si>
-  <si>
-    <t>模拟接入流程需要具备的条件分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4.10 下发节点(96H)’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4.12 配置节点(98H)’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加单个节点(9EH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备端上报或响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适配服务接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送到KAFKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上报的数据需要封装成以下几种消息类型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析下入参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组网个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要入参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点ID，组号1~255，设备类型~常量码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须集中器ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物联网平台应该要有对应的UUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该只是一个集中器下的分组，不支持跨集中器一组 ？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统启动，后台批处理程序，可以执行这5个步骤，自动完成设备的接入，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果重新做了分组，上面的接入流程需要重新从3开始执行一遍？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于PLC接入的框架打桩，即NETTY服务通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务启动，设备自动接入并配置的流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAFKA消费并下发，下发报文到设备，处理设备响应报文，上报响应结果到KAFKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于协议做编码解码 ，0到1打通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1到N开发，参考协议文档</t>
+    <t>的vID =1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1476,7 @@
   <dimension ref="A3:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1485,12 +1488,12 @@
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1498,7 +1501,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -1522,50 +1525,50 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1576,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1588,100 +1591,103 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
         <v>96</v>
       </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1702,27 +1708,27 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
